--- a/biology/Zoologie/Guyniidae/Guyniidae.xlsx
+++ b/biology/Zoologie/Guyniidae/Guyniidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Guyniidae sont une famille de scléractiniaires (coraux durs dits « coraux bâtisseurs de récifs »).
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Guyniidae a été créée en 1910 par le zoologiste britannique Sydney John Hickson (1859-1940) pour y ranger les genres Guynia et Pyrophyllia[2], ce dernier étant désormais considéré comme synonyme du premier[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Guyniidae a été créée en 1910 par le zoologiste britannique Sydney John Hickson (1859-1940) pour y ranger les genres Guynia et Pyrophyllia, ce dernier étant désormais considéré comme synonyme du premier.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (15 septembre 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (15 septembre 2021) :
 genre † Cyathosmilia Tenison-Woods, 1878
 genre Guynia Duncan, 1873
 genre † Onchotrochus Duncan, 1869</t>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Sydney J. Hickson, « On a new octoradiate coral, Pyrophyllia inflata (new genus and species) », Memoirs and proceedings of the Manchester Literary &amp; Philosophical Society, Manchester, Manchester Literary and Philosophical Society, vol. 54, no 12,‎ 11 mai 1910, p. 1-7 (ISSN 0076-3721, OCLC 7726729, lire en ligne)</t>
         </is>
